--- a/assets/backdata/FCT_ETH.xlsx
+++ b/assets/backdata/FCT_ETH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shunichinakada/Documents/nuxt/recepi-calk03/assets/backdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD30B25-26BE-7E49-8A3E-574DED037BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50790CED-9DC8-EC44-90C1-28A88691E60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="520" windowWidth="27500" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fct2'!$A$1:$AI$96</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="156">
   <si>
     <t>FCT_id</t>
   </si>
@@ -464,13 +476,49 @@
   </si>
   <si>
     <t>Goat meat, dried</t>
+  </si>
+  <si>
+    <t>Cauliflower</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://fdc.nal.usda.gov/fdc-app.html#/food-details/169986/nutrients</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/331834378_Nutrition_Food_Science_A_review_on_nutritional_profile_of_the_food_from_enset_A_staple_diet_for_more_than_25_per_cent_population_in_Ethiopia_Article_information_For_Authors_A_review_on_nutritional_pro</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Starchy roots, tubers and their products</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Kocho (Enset)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Amicho (Enset)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Bulla (Enset)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Injera (teff)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.nutritionvalue.org/Injera%2C_Ethiopian_bread_51807000_nutritional_value.html?size=100+g, https://pubmed.ncbi.nlm.nih.gov/29052470/#:~:text=The%20iron%20concentration%20in%20injera,due%20to%20contamination%20with%20soil.</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -625,6 +673,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -928,7 +985,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1055,13 +1112,22 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1089,6 +1155,7 @@
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="ハイパーリンク" xfId="42" builtinId="8"/>
     <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -1415,10 +1482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI98"/>
+  <dimension ref="A1:AI103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11375,6 +11443,224 @@
         <v>53</v>
       </c>
     </row>
+    <row r="99" spans="1:35">
+      <c r="A99">
+        <v>10001</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>1001</v>
+      </c>
+      <c r="D99" t="s">
+        <v>51</v>
+      </c>
+      <c r="E99" t="s">
+        <v>147</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H99">
+        <v>25</v>
+      </c>
+      <c r="J99">
+        <v>1.92</v>
+      </c>
+      <c r="K99">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L99">
+        <v>4.97</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="P99">
+        <v>0.42</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:35">
+      <c r="A100">
+        <v>10003</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>1003</v>
+      </c>
+      <c r="D100" t="s">
+        <v>150</v>
+      </c>
+      <c r="E100" t="s">
+        <v>151</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H100">
+        <v>400</v>
+      </c>
+      <c r="J100">
+        <v>1.51</v>
+      </c>
+      <c r="K100">
+        <v>0.51</v>
+      </c>
+      <c r="L100">
+        <v>90.7</v>
+      </c>
+      <c r="M100">
+        <v>3.44</v>
+      </c>
+      <c r="N100">
+        <v>3.81</v>
+      </c>
+      <c r="P100">
+        <v>135</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:35">
+      <c r="A101">
+        <v>10004</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>1004</v>
+      </c>
+      <c r="D101" t="s">
+        <v>150</v>
+      </c>
+      <c r="E101" t="s">
+        <v>152</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H101">
+        <v>333</v>
+      </c>
+      <c r="J101">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K101">
+        <v>0.6</v>
+      </c>
+      <c r="L101">
+        <v>64.8</v>
+      </c>
+      <c r="M101">
+        <v>1.74</v>
+      </c>
+      <c r="N101">
+        <v>3.2</v>
+      </c>
+      <c r="P101">
+        <v>123</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:35">
+      <c r="A102">
+        <v>10005</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>1005</v>
+      </c>
+      <c r="D102" t="s">
+        <v>150</v>
+      </c>
+      <c r="E102" t="s">
+        <v>153</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H102">
+        <v>336</v>
+      </c>
+      <c r="J102">
+        <v>0.6</v>
+      </c>
+      <c r="K102">
+        <v>0.1</v>
+      </c>
+      <c r="L102">
+        <v>89.6</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>59.8</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35" ht="105">
+      <c r="A103">
+        <v>10006</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>1006</v>
+      </c>
+      <c r="D103" t="s">
+        <v>150</v>
+      </c>
+      <c r="E103" t="s">
+        <v>154</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H103">
+        <f>100*126/125</f>
+        <v>100.8</v>
+      </c>
+      <c r="J103">
+        <f>4.8*100/125</f>
+        <v>3.84</v>
+      </c>
+      <c r="K103">
+        <f>0.8*100/125</f>
+        <v>0.64</v>
+      </c>
+      <c r="L103">
+        <f>25*100/125</f>
+        <v>20</v>
+      </c>
+      <c r="P103">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AI96" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI95">
@@ -11382,6 +11668,11 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>
+  <hyperlinks>
+    <hyperlink ref="F99" r:id="rId1" location="/food-details/169986/nutrients" xr:uid="{0D08D853-EA79-1E43-9C3D-094E556ED964}"/>
+    <hyperlink ref="F100:F102" r:id="rId2" display="https://www.researchgate.net/publication/331834378_Nutrition_Food_Science_A_review_on_nutritional_profile_of_the_food_from_enset_A_staple_diet_for_more_than_25_per_cent_population_in_Ethiopia_Article_information_For_Authors_A_review_on_nutritional_pro" xr:uid="{8710C006-85F4-4240-B439-104ADA37D96D}"/>
+    <hyperlink ref="F103" r:id="rId3" display="https://www.nutritionvalue.org/Injera%2C_Ethiopian_bread_51807000_nutritional_value.html?size=100+g" xr:uid="{2DDFC044-F3DD-2342-A24A-65DFFDEA89B8}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/assets/backdata/FCT_ETH.xlsx
+++ b/assets/backdata/FCT_ETH.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shunichinakada/Documents/nuxt/recepi-calk03/assets/backdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50790CED-9DC8-EC44-90C1-28A88691E60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F37B39-69B3-4F40-9D13-BF01B86AA27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="27500" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27500" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fct2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fct2'!$A$1:$AI$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fct2'!$A$1:$AI$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="157">
   <si>
     <t>FCT_id</t>
   </si>
@@ -425,9 +425,6 @@
   </si>
   <si>
     <t>Kale(yabesha gomen)</t>
-  </si>
-  <si>
-    <t>Soya bean, dried</t>
   </si>
   <si>
     <t>Groundnut paste</t>
@@ -512,13 +509,20 @@
   <si>
     <t>https://www.nutritionvalue.org/Injera%2C_Ethiopian_bread_51807000_nutritional_value.html?size=100+g, https://pubmed.ncbi.nlm.nih.gov/29052470/#:~:text=The%20iron%20concentration%20in%20injera,due%20to%20contamination%20with%20soil.</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Soya bean, dried</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Faba bean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -684,6 +688,14 @@
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1116,7 +1128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1125,6 +1137,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1482,11 +1497,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI103"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AI104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1604,7 +1620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" hidden="1">
       <c r="A2">
         <v>11445</v>
       </c>
@@ -1708,7 +1724,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" hidden="1">
       <c r="A3">
         <v>1004</v>
       </c>
@@ -1812,7 +1828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" hidden="1">
       <c r="A4">
         <v>1039</v>
       </c>
@@ -1916,7 +1932,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" hidden="1">
       <c r="A5">
         <v>1043</v>
       </c>
@@ -2020,7 +2036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" hidden="1">
       <c r="A6">
         <v>1072</v>
       </c>
@@ -2124,7 +2140,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" hidden="1">
       <c r="A7">
         <v>1057</v>
       </c>
@@ -2228,7 +2244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" hidden="1">
       <c r="A8">
         <v>1045</v>
       </c>
@@ -2332,7 +2348,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" hidden="1">
       <c r="A9">
         <v>1034</v>
       </c>
@@ -2436,7 +2452,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" hidden="1">
       <c r="A10">
         <v>1037</v>
       </c>
@@ -2540,7 +2556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" hidden="1">
       <c r="A11">
         <v>8354</v>
       </c>
@@ -2644,7 +2660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" hidden="1">
       <c r="A12">
         <v>9398</v>
       </c>
@@ -2745,7 +2761,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" hidden="1">
       <c r="A13">
         <v>9375</v>
       </c>
@@ -2846,7 +2862,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" hidden="1">
       <c r="A14">
         <v>5236</v>
       </c>
@@ -2950,7 +2966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" hidden="1">
       <c r="A15">
         <v>5222</v>
       </c>
@@ -3054,7 +3070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" hidden="1">
       <c r="A16">
         <v>5234</v>
       </c>
@@ -3158,7 +3174,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" hidden="1">
       <c r="A17">
         <v>5247</v>
       </c>
@@ -3262,7 +3278,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" hidden="1">
       <c r="A18">
         <v>5261</v>
       </c>
@@ -3366,7 +3382,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" hidden="1">
       <c r="A19">
         <v>5237</v>
       </c>
@@ -3470,7 +3486,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" hidden="1">
       <c r="A20">
         <v>5247</v>
       </c>
@@ -3574,7 +3590,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" hidden="1">
       <c r="A21">
         <v>5258</v>
       </c>
@@ -3678,7 +3694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" hidden="1">
       <c r="A22">
         <v>5229</v>
       </c>
@@ -3692,7 +3708,7 @@
         <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G22">
         <v>0.78</v>
@@ -3782,7 +3798,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" hidden="1">
       <c r="A23">
         <v>5245</v>
       </c>
@@ -3886,7 +3902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" hidden="1">
       <c r="A24">
         <v>5233</v>
       </c>
@@ -3990,7 +4006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" hidden="1">
       <c r="A25">
         <v>3134</v>
       </c>
@@ -4091,7 +4107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" hidden="1">
       <c r="A26">
         <v>3118</v>
       </c>
@@ -4105,7 +4121,7 @@
         <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -4192,7 +4208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" hidden="1">
       <c r="A27">
         <v>3140</v>
       </c>
@@ -4293,7 +4309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" hidden="1">
       <c r="A28">
         <v>3114</v>
       </c>
@@ -4397,7 +4413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" hidden="1">
       <c r="A29">
         <v>3132</v>
       </c>
@@ -4501,7 +4517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" hidden="1">
       <c r="A30">
         <v>7336</v>
       </c>
@@ -4706,7 +4722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" hidden="1">
       <c r="A32">
         <v>7293</v>
       </c>
@@ -4810,7 +4826,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" hidden="1">
       <c r="A33">
         <v>7326</v>
       </c>
@@ -5122,7 +5138,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" hidden="1">
       <c r="A36">
         <v>10407</v>
       </c>
@@ -5226,7 +5242,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" hidden="1">
       <c r="A37">
         <v>10411</v>
       </c>
@@ -5330,7 +5346,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" hidden="1">
       <c r="A38">
         <v>10427</v>
       </c>
@@ -5344,7 +5360,7 @@
         <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -5434,7 +5450,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" hidden="1">
       <c r="A39">
         <v>10428</v>
       </c>
@@ -5448,7 +5464,7 @@
         <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -5538,7 +5554,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" hidden="1">
       <c r="A40">
         <v>10429</v>
       </c>
@@ -5552,7 +5568,7 @@
         <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -5642,7 +5658,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" hidden="1">
       <c r="A41">
         <v>10430</v>
       </c>
@@ -5656,7 +5672,7 @@
         <v>72</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -5746,7 +5762,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" hidden="1">
       <c r="A42">
         <v>10432</v>
       </c>
@@ -5760,7 +5776,7 @@
         <v>72</v>
       </c>
       <c r="E42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -5850,7 +5866,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" hidden="1">
       <c r="A43">
         <v>10434</v>
       </c>
@@ -5864,7 +5880,7 @@
         <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5954,7 +5970,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" hidden="1">
       <c r="A44">
         <v>10435</v>
       </c>
@@ -5968,7 +5984,7 @@
         <v>72</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -6052,7 +6068,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" hidden="1">
       <c r="A45">
         <v>10426</v>
       </c>
@@ -6153,7 +6169,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" hidden="1">
       <c r="A46">
         <v>20007</v>
       </c>
@@ -6227,7 +6243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" hidden="1">
       <c r="A47">
         <v>20003</v>
       </c>
@@ -6301,7 +6317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" hidden="1">
       <c r="A48">
         <v>20022</v>
       </c>
@@ -6315,7 +6331,7 @@
         <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -6375,7 +6391,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" hidden="1">
       <c r="A49">
         <v>20017</v>
       </c>
@@ -6449,7 +6465,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" hidden="1">
       <c r="A50">
         <v>20008</v>
       </c>
@@ -6463,7 +6479,7 @@
         <v>35</v>
       </c>
       <c r="E50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -6523,7 +6539,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" hidden="1">
       <c r="A51">
         <v>12464</v>
       </c>
@@ -6627,7 +6643,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" hidden="1">
       <c r="A52">
         <v>12465</v>
       </c>
@@ -6731,7 +6747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" hidden="1">
       <c r="A53">
         <v>20018</v>
       </c>
@@ -6835,7 +6851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" hidden="1">
       <c r="A54">
         <v>12468</v>
       </c>
@@ -6939,7 +6955,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" hidden="1">
       <c r="A55">
         <v>12461</v>
       </c>
@@ -6953,7 +6969,7 @@
         <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -7043,7 +7059,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" hidden="1">
       <c r="A56">
         <v>12463</v>
       </c>
@@ -7147,7 +7163,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" hidden="1">
       <c r="A57">
         <v>20035</v>
       </c>
@@ -7221,7 +7237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" hidden="1">
       <c r="A58">
         <v>20033</v>
       </c>
@@ -7325,7 +7341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" hidden="1">
       <c r="A59">
         <v>20014</v>
       </c>
@@ -7399,7 +7415,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" hidden="1">
       <c r="A60">
         <v>20006</v>
       </c>
@@ -7503,7 +7519,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" hidden="1">
       <c r="A61">
         <v>20005</v>
       </c>
@@ -7607,7 +7623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" hidden="1">
       <c r="A62">
         <v>6272</v>
       </c>
@@ -7711,7 +7727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" hidden="1">
       <c r="A63">
         <v>6266</v>
       </c>
@@ -7815,7 +7831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" hidden="1">
       <c r="A64">
         <v>6286</v>
       </c>
@@ -7829,7 +7845,7 @@
         <v>56</v>
       </c>
       <c r="E64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -8023,7 +8039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:35" hidden="1">
       <c r="A66">
         <v>2077</v>
       </c>
@@ -8127,7 +8143,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:35" hidden="1">
       <c r="A67">
         <v>2078</v>
       </c>
@@ -8225,7 +8241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:35" hidden="1">
       <c r="A68">
         <v>2083</v>
       </c>
@@ -8329,7 +8345,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:35" hidden="1">
       <c r="A69">
         <v>2085</v>
       </c>
@@ -8433,7 +8449,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:35" hidden="1">
       <c r="A70">
         <v>2080</v>
       </c>
@@ -8531,7 +8547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:35" hidden="1">
       <c r="A71">
         <v>4158</v>
       </c>
@@ -8635,7 +8651,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:35" hidden="1">
       <c r="A72">
         <v>4171</v>
       </c>
@@ -8649,7 +8665,7 @@
         <v>51</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G72">
         <v>0.91</v>
@@ -8739,7 +8755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:35" hidden="1">
       <c r="A73">
         <v>4168</v>
       </c>
@@ -8843,7 +8859,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:35" hidden="1">
       <c r="A74">
         <v>4156</v>
       </c>
@@ -8857,7 +8873,7 @@
         <v>51</v>
       </c>
       <c r="E74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G74">
         <v>0.89</v>
@@ -8947,7 +8963,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:35" hidden="1">
       <c r="A75">
         <v>4181</v>
       </c>
@@ -9051,7 +9067,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:35" hidden="1">
       <c r="A76">
         <v>4205</v>
       </c>
@@ -9155,7 +9171,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:35" hidden="1">
       <c r="A77">
         <v>4155</v>
       </c>
@@ -9259,7 +9275,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:35" hidden="1">
       <c r="A78">
         <v>4158</v>
       </c>
@@ -9363,7 +9379,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:35" hidden="1">
       <c r="A79">
         <v>4160</v>
       </c>
@@ -9467,7 +9483,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:35" hidden="1">
       <c r="A80">
         <v>4162</v>
       </c>
@@ -9571,7 +9587,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81" spans="1:35" hidden="1">
       <c r="A81">
         <v>4163</v>
       </c>
@@ -9675,7 +9691,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:35" hidden="1">
       <c r="A82">
         <v>4165</v>
       </c>
@@ -9779,7 +9795,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:35" hidden="1">
       <c r="A83">
         <v>4167</v>
       </c>
@@ -9883,7 +9899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:35" hidden="1">
       <c r="A84">
         <v>4170</v>
       </c>
@@ -9987,7 +10003,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="1:35" hidden="1">
       <c r="A85">
         <v>4173</v>
       </c>
@@ -10091,7 +10107,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:35">
+    <row r="86" spans="1:35" hidden="1">
       <c r="A86">
         <v>4182</v>
       </c>
@@ -10195,7 +10211,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:35">
+    <row r="87" spans="1:35" hidden="1">
       <c r="A87">
         <v>4207</v>
       </c>
@@ -10299,7 +10315,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:35">
+    <row r="88" spans="1:35" hidden="1">
       <c r="A88">
         <v>4209</v>
       </c>
@@ -10403,7 +10419,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:35">
+    <row r="89" spans="1:35" hidden="1">
       <c r="A89">
         <v>4156</v>
       </c>
@@ -10417,7 +10433,7 @@
         <v>51</v>
       </c>
       <c r="E89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G89">
         <v>0.89</v>
@@ -10507,7 +10523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:35">
+    <row r="90" spans="1:35" hidden="1">
       <c r="A90">
         <v>4190</v>
       </c>
@@ -10521,7 +10537,7 @@
         <v>51</v>
       </c>
       <c r="E90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G90">
         <v>0.7</v>
@@ -10611,7 +10627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:35">
+    <row r="91" spans="1:35" hidden="1">
       <c r="A91">
         <v>4201</v>
       </c>
@@ -10625,7 +10641,7 @@
         <v>51</v>
       </c>
       <c r="E91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G91">
         <v>0.7</v>
@@ -10715,7 +10731,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:35">
+    <row r="92" spans="1:35" hidden="1">
       <c r="A92">
         <v>4197</v>
       </c>
@@ -10819,7 +10835,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:35">
+    <row r="93" spans="1:35" hidden="1">
       <c r="A93">
         <v>4199</v>
       </c>
@@ -10923,7 +10939,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:35">
+    <row r="94" spans="1:35" hidden="1">
       <c r="A94">
         <v>4209</v>
       </c>
@@ -11027,7 +11043,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:35">
+    <row r="95" spans="1:35" hidden="1">
       <c r="A95">
         <v>4195</v>
       </c>
@@ -11131,7 +11147,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:35">
+    <row r="96" spans="1:35" hidden="1">
       <c r="A96">
         <v>4196</v>
       </c>
@@ -11235,7 +11251,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:35">
+    <row r="97" spans="1:35" hidden="1">
       <c r="A97">
         <v>4154</v>
       </c>
@@ -11339,7 +11355,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:35">
+    <row r="98" spans="1:35" hidden="1">
       <c r="A98">
         <v>4167</v>
       </c>
@@ -11443,7 +11459,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:35">
+    <row r="99" spans="1:35" hidden="1">
       <c r="A99">
         <v>10001</v>
       </c>
@@ -11457,10 +11473,10 @@
         <v>51</v>
       </c>
       <c r="E99" t="s">
+        <v>146</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="H99">
         <v>25</v>
@@ -11487,7 +11503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:35">
+    <row r="100" spans="1:35" hidden="1">
       <c r="A100">
         <v>10003</v>
       </c>
@@ -11498,13 +11514,13 @@
         <v>1003</v>
       </c>
       <c r="D100" t="s">
+        <v>149</v>
+      </c>
+      <c r="E100" t="s">
         <v>150</v>
       </c>
-      <c r="E100" t="s">
-        <v>151</v>
-      </c>
       <c r="F100" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H100">
         <v>400</v>
@@ -11531,7 +11547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:35">
+    <row r="101" spans="1:35" hidden="1">
       <c r="A101">
         <v>10004</v>
       </c>
@@ -11542,13 +11558,13 @@
         <v>1004</v>
       </c>
       <c r="D101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H101">
         <v>333</v>
@@ -11575,7 +11591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:35">
+    <row r="102" spans="1:35" hidden="1">
       <c r="A102">
         <v>10005</v>
       </c>
@@ -11586,13 +11602,13 @@
         <v>1005</v>
       </c>
       <c r="D102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H102">
         <v>336</v>
@@ -11619,7 +11635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:35" ht="105">
+    <row r="103" spans="1:35" ht="105" hidden="1">
       <c r="A103">
         <v>10006</v>
       </c>
@@ -11630,13 +11646,13 @@
         <v>1006</v>
       </c>
       <c r="D103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E103" t="s">
+        <v>153</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="H103">
         <f>100*126/125</f>
@@ -11661,8 +11677,121 @@
         <v>42</v>
       </c>
     </row>
+    <row r="104" spans="1:35">
+      <c r="A104" s="3">
+        <v>20021</v>
+      </c>
+      <c r="B104" s="3">
+        <v>12</v>
+      </c>
+      <c r="C104" s="3">
+        <v>811</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
+      <c r="H104" s="3">
+        <v>309</v>
+      </c>
+      <c r="I104" s="3">
+        <v>0</v>
+      </c>
+      <c r="J104" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="K104" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="L104" s="3">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="M104" s="3">
+        <v>20.8</v>
+      </c>
+      <c r="N104" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="O104" s="3">
+        <v>95.6</v>
+      </c>
+      <c r="P104" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>135.5</v>
+      </c>
+      <c r="R104" s="3">
+        <v>430.6</v>
+      </c>
+      <c r="S104" s="3">
+        <v>1190</v>
+      </c>
+      <c r="T104" s="3">
+        <v>25</v>
+      </c>
+      <c r="U104" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="V104" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="W104" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="X104" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD104" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE104" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF104" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH104" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI104" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI96" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:AI103" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Beef, meat, 15-20  % fat, boneless"/>
+        <filter val="Groundnut flour, with fat"/>
+        <filter val="Milk, cow, whole, 3.5 % fat"/>
+        <filter val="Pork, meat, approx. 40 % fat, boneless"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI95">
       <sortCondition ref="D1:D95"/>
     </sortState>
